--- a/data/trans_bre/P2A_enfcro_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.78184095033253</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.706124966463136</v>
+        <v>8.706124966463126</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1898974592403224</v>
@@ -649,7 +649,7 @@
         <v>0.2216622776335901</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1565885515635017</v>
+        <v>0.1565885515635015</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.007651048272048</v>
+        <v>0.06003369163434893</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.009660529656713</v>
+        <v>8.57345701081303</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.474807240925176</v>
+        <v>3.569940457227921</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.32138358932906</v>
+        <v>1.069930129877406</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.02093563957418691</v>
+        <v>-0.001541534850661027</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1378750412084316</v>
+        <v>0.1422901067275049</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05670436170449302</v>
+        <v>0.06523945660937518</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.02336898231110981</v>
+        <v>0.01987358234830734</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.89532681499822</v>
+        <v>17.86104568074066</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>24.01186876195461</v>
+        <v>24.38177599898656</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.11079509596585</v>
+        <v>19.97392728579778</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.82151852240415</v>
+        <v>15.93425267676267</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4612521116450712</v>
+        <v>0.4852325279976514</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.435207826636346</v>
+        <v>0.4457042231089868</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3991957822285194</v>
+        <v>0.4106552050815838</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.311841434352306</v>
+        <v>0.3142259677392778</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>13.87817430328657</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.79963583606483</v>
+        <v>4.799635836064825</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.489052257460684</v>
@@ -749,7 +749,7 @@
         <v>0.2475739444571492</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1479598604830407</v>
+        <v>0.1479598604830405</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>12.9547420491358</v>
+        <v>13.59744123020139</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>11.5081288028654</v>
+        <v>10.94864292688277</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.644270962867193</v>
+        <v>8.506986206772408</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.980872307373948</v>
+        <v>-1.333188733008576</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2979025016876645</v>
+        <v>0.3096453849920226</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2065690364870766</v>
+        <v>0.2005307290657463</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1293088094523555</v>
+        <v>0.1398207878434429</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05360585812805185</v>
+        <v>-0.03839741396746376</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>26.19052111292475</v>
+        <v>25.78425589865551</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>23.96147462790902</v>
+        <v>23.06768409300477</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19.82069989404352</v>
+        <v>20.5389159453738</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.38120403089343</v>
+        <v>11.58962227552477</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7305783825584895</v>
+        <v>0.7004424560855442</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5024026936811657</v>
+        <v>0.4900568582296026</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3869257107915948</v>
+        <v>0.393860192635063</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3587750507310073</v>
+        <v>0.3963105813881042</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.207005087066522</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.731867221100133</v>
+        <v>4.731867221100128</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5437316106318549</v>
@@ -849,7 +849,7 @@
         <v>0.1795480756558769</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1182756675498043</v>
+        <v>0.1182756675498041</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15.98194676862991</v>
+        <v>16.19516827706395</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.012267332745209</v>
+        <v>0.4362098919231198</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.353862213970353</v>
+        <v>1.733218780384702</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.560336039298984</v>
+        <v>-1.71122725438443</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3281826996733503</v>
+        <v>0.3371173958242835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01773459016526782</v>
+        <v>0.007237688650931419</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02540510079087832</v>
+        <v>0.03088623967901135</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03540260784195806</v>
+        <v>-0.04278802269872104</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>31.14115141509138</v>
+        <v>30.90799427614062</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.43436917277353</v>
+        <v>15.88615118208115</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.37202380170297</v>
+        <v>16.5823388478641</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.12388508082758</v>
+        <v>12.09210081222073</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7961706586618867</v>
+        <v>0.8016314588027582</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2998537496678846</v>
+        <v>0.2932882563822364</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3517667511580131</v>
+        <v>0.3517943292793216</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3164230170258003</v>
+        <v>0.3459504521183941</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>14.15323656294916</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.522440708728585</v>
+        <v>8.522440708728606</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3652697826051336</v>
@@ -949,7 +949,7 @@
         <v>0.2541869387262022</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2114189802507466</v>
+        <v>0.2114189802507472</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>11.2281914433458</v>
+        <v>11.10917259099606</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.370370643429399</v>
+        <v>6.300029132008193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.802777379121401</v>
+        <v>7.177130876025379</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4683732427429164</v>
+        <v>0.9208837854547063</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.210747371985478</v>
+        <v>0.2011232110286703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0905295480226911</v>
+        <v>0.1023062679058235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1182953276934492</v>
+        <v>0.1188521208145291</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0107503329431433</v>
+        <v>0.01851065136235848</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>25.60380133512812</v>
+        <v>25.32873291932344</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>19.23840387569959</v>
+        <v>20.62020524091317</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21.33966439345799</v>
+        <v>21.14555659252658</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15.93015236819905</v>
+        <v>16.6409594773911</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5549205344889562</v>
+        <v>0.5411554928603094</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3668522865610351</v>
+        <v>0.3909051565382271</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4201183433045776</v>
+        <v>0.3979550303773418</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4586258795455859</v>
+        <v>0.4628365224828158</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.143567055780499</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.351017135166553</v>
+        <v>2.35101713516655</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3152286790663937</v>
@@ -1049,7 +1049,7 @@
         <v>0.1784222221625376</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2526894466335435</v>
+        <v>0.2526894466335431</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.078650148079414</v>
+        <v>3.064548031035095</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.05119503705958</v>
+        <v>16.40314581194567</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3681468656933022</v>
+        <v>-0.5272357149009556</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.476293555368344</v>
+        <v>-2.15648356136761</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07266277641573922</v>
+        <v>0.07266045989547019</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2901747135975405</v>
+        <v>0.2738834602306261</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.008441482760531013</v>
+        <v>-0.008872644341932478</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2101055747702443</v>
+        <v>-0.1769278011621394</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.33689576363485</v>
+        <v>23.88364061142209</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>34.7223887424745</v>
+        <v>35.48391578247738</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.99484365216722</v>
+        <v>17.94941650193428</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.799211973559915</v>
+        <v>6.620322980119862</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5858502481393753</v>
+        <v>0.6215638795479811</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7379518145534187</v>
+        <v>0.7401041212361193</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4115531049810549</v>
+        <v>0.3844825889335279</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.033297838567542</v>
+        <v>1.034363172590017</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>11.8157158243761</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.8430363914760597</v>
+        <v>0.8430363914760375</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2730771800755522</v>
@@ -1149,7 +1149,7 @@
         <v>0.26444966194726</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.01707320261740883</v>
+        <v>0.01707320261740838</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.113148227977086</v>
+        <v>5.376863131117946</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.163578719362732</v>
+        <v>5.995743696019713</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.450323410619541</v>
+        <v>3.563162763101899</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.737262725045441</v>
+        <v>-6.551454135419293</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1102846469370094</v>
+        <v>0.0997571397367622</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09474039606689086</v>
+        <v>0.09059039745988835</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05046835708158064</v>
+        <v>0.070777824185315</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1246266936934104</v>
+        <v>-0.1247097915434547</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.5694576615363</v>
+        <v>23.11787963294966</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.17773972385999</v>
+        <v>22.17433780693692</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19.5334118057356</v>
+        <v>20.22285559858684</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.031914816135409</v>
+        <v>8.11161070159544</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4688454950345607</v>
+        <v>0.511959170699584</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3913513476613656</v>
+        <v>0.3862539460668186</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.48847999519291</v>
+        <v>0.4999602605818084</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1793461730795307</v>
+        <v>0.1777451964303922</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>11.54672718517984</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.19814251742504</v>
+        <v>6.198142517425046</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4191740419624391</v>
@@ -1249,7 +1249,7 @@
         <v>0.2717266305259766</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2924551587743672</v>
+        <v>0.2924551587743676</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>11.49884594968212</v>
+        <v>11.70626055569814</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.322498937308088</v>
+        <v>4.070614544719958</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.840726263342044</v>
+        <v>5.581859776148405</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9965462018601996</v>
+        <v>1.632833567627338</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2609805500960958</v>
+        <v>0.2636914504979424</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07185591145625878</v>
+        <v>0.0652012065070904</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1266823653921264</v>
+        <v>0.1230836693738098</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.04131333321076876</v>
+        <v>0.06447903485980483</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.98223523137412</v>
+        <v>22.68418668141282</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.54394671234923</v>
+        <v>14.88728161670547</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.88855584559964</v>
+        <v>16.77560613716052</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.85262711096665</v>
+        <v>10.72235710740658</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6035181159592986</v>
+        <v>0.5968068487041555</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2824306997552063</v>
+        <v>0.2699439943486949</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4251843998834205</v>
+        <v>0.4313741285659475</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5858358668199094</v>
+        <v>0.5912128506824398</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.410779087242644</v>
+        <v>7.132193218670952</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.52234888761028</v>
+        <v>7.935018673161139</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.994566177013788</v>
+        <v>5.535686641491301</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.216834058023132</v>
+        <v>7.725597935832919</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1539990598780935</v>
+        <v>0.1455898023140084</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1620303217854668</v>
+        <v>0.1718932342601164</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09684216000924128</v>
+        <v>0.1108996345479919</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2228072018220126</v>
+        <v>0.2512642861637927</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>17.77874922269972</v>
+        <v>16.91014546855362</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>17.87372604213136</v>
+        <v>17.44149282420411</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15.87950392125113</v>
+        <v>15.7981213907694</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>16.41088613413614</v>
+        <v>16.54625422339478</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4155221538551309</v>
+        <v>0.3879583046696471</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4427775519440216</v>
+        <v>0.4226496260673009</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3525827383596599</v>
+        <v>0.3497889625924177</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6230233402452966</v>
+        <v>0.6360831207429537</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>13.46445379462059</v>
+        <v>13.6837813320017</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>11.18907302204091</v>
+        <v>11.39630484189934</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.261992349113331</v>
+        <v>9.302186905202555</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.592211743708297</v>
+        <v>4.520424285708833</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2936179084289411</v>
+        <v>0.3006474873760261</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2000225771130503</v>
+        <v>0.2064336908025747</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1807255497212824</v>
+        <v>0.1830654428355244</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.1350681203816502</v>
+        <v>0.1299290441853905</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>18.29924242484364</v>
+        <v>18.41748662015708</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.84617234237788</v>
+        <v>16.08727722840612</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13.97681622259935</v>
+        <v>14.23057861597547</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.974142531028809</v>
+        <v>9.070693418200712</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4219897655543887</v>
+        <v>0.4315469519430391</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3006302142021493</v>
+        <v>0.3075003490870151</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.288426743371327</v>
+        <v>0.2914976555746263</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2855778269684687</v>
+        <v>0.2892482620368019</v>
       </c>
     </row>
     <row r="31">
